--- a/loss_in_devices/conexao_t_FatorZetaLinha.xlsx
+++ b/loss_in_devices/conexao_t_FatorZetaLinha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clayt\AppData\Local\Programs\Python\Python39\Lib\site-packages\DuctNet\loss_in_devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54516A3F-EF51-45C2-81A5-368A861649A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282D7AAB-340E-413A-989E-E0AEE950CAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{07786220-57D2-45C4-AC75-DA5932A9EE4F}"/>
   </bookViews>
@@ -75,8 +75,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B802572-20E9-40B3-9DCF-EFEE83B78004}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,8 +414,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9.9537E-2</v>
+      <c r="A2" s="1">
+        <v>-9.9999999999999998E+66</v>
       </c>
       <c r="B2">
         <v>0.99529000000000001</v>
@@ -423,386 +426,408 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9.9935999999999997E-2</v>
+        <v>9.9537E-2</v>
       </c>
       <c r="B3">
-        <v>0.99544999999999995</v>
+        <v>0.99529000000000001</v>
       </c>
       <c r="C3">
-        <v>0.99951000000000001</v>
+        <v>0.99926999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.143511</v>
+        <v>9.9935999999999997E-2</v>
       </c>
       <c r="B4">
-        <v>1.00972</v>
+        <v>0.99544999999999995</v>
       </c>
       <c r="C4">
-        <v>1.02142</v>
+        <v>0.99951000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.19423000000000001</v>
+        <v>0.143511</v>
       </c>
       <c r="B5">
-        <v>1.02179</v>
+        <v>1.00972</v>
       </c>
       <c r="C5">
-        <v>1.04251</v>
+        <v>1.02142</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.22006999999999999</v>
+        <v>0.19423000000000001</v>
       </c>
       <c r="B6">
-        <v>1.02691</v>
+        <v>1.02179</v>
       </c>
       <c r="C6">
-        <v>1.0538799999999999</v>
+        <v>1.04251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.25336999999999998</v>
+        <v>0.22006999999999999</v>
       </c>
       <c r="B7">
-        <v>1.0330900000000001</v>
+        <v>1.02691</v>
       </c>
       <c r="C7">
-        <v>1.0692999999999999</v>
+        <v>1.0538799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.26798</v>
+        <v>0.25336999999999998</v>
       </c>
       <c r="B8">
-        <v>1.0359</v>
+        <v>1.0330900000000001</v>
       </c>
       <c r="C8">
-        <v>1.0762499999999999</v>
+        <v>1.0692999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.30558999999999997</v>
+        <v>0.26798</v>
       </c>
       <c r="B9">
-        <v>1.04247</v>
+        <v>1.0359</v>
       </c>
       <c r="C9">
-        <v>1.0940700000000001</v>
+        <v>1.0762499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.31856000000000001</v>
+        <v>0.30558999999999997</v>
       </c>
       <c r="B10">
-        <v>1.0453600000000001</v>
+        <v>1.04247</v>
       </c>
       <c r="C10">
-        <v>1.1000799999999999</v>
+        <v>1.0940700000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.38913999999999999</v>
+        <v>0.31856000000000001</v>
       </c>
       <c r="B11">
-        <v>1.06091</v>
+        <v>1.0453600000000001</v>
       </c>
       <c r="C11">
-        <v>1.14157</v>
+        <v>1.1000799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.38979000000000003</v>
+        <v>0.38913999999999999</v>
       </c>
       <c r="B12">
-        <v>1.06104</v>
+        <v>1.06091</v>
       </c>
       <c r="C12">
-        <v>1.1420699999999999</v>
+        <v>1.14157</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.47160999999999997</v>
+        <v>0.38979000000000003</v>
       </c>
       <c r="B13">
-        <v>1.07698</v>
+        <v>1.06104</v>
       </c>
       <c r="C13">
-        <v>1.20831</v>
+        <v>1.1420699999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.50434000000000001</v>
+        <v>0.47160999999999997</v>
       </c>
       <c r="B14">
-        <v>1.0846800000000001</v>
+        <v>1.07698</v>
       </c>
       <c r="C14">
-        <v>1.23526</v>
+        <v>1.20831</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.55528</v>
+        <v>0.50434000000000001</v>
       </c>
       <c r="B15">
-        <v>1.10019</v>
+        <v>1.0846800000000001</v>
       </c>
       <c r="C15">
-        <v>1.2819400000000001</v>
+        <v>1.23526</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.62897000000000003</v>
+        <v>0.55528</v>
       </c>
       <c r="B16">
-        <v>1.12805</v>
+        <v>1.10019</v>
       </c>
       <c r="C16">
-        <v>1.3757900000000001</v>
+        <v>1.2819400000000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.67830000000000001</v>
+        <v>0.62897000000000003</v>
       </c>
       <c r="B17">
-        <v>1.1485399999999999</v>
+        <v>1.12805</v>
       </c>
       <c r="C17">
-        <v>1.44547</v>
+        <v>1.3757900000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.83789999999999998</v>
+        <v>0.67830000000000001</v>
       </c>
       <c r="B18">
-        <v>1.21898</v>
+        <v>1.1485399999999999</v>
       </c>
       <c r="C18">
-        <v>1.6719999999999999</v>
+        <v>1.44547</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.87304999999999999</v>
+        <v>0.83789999999999998</v>
       </c>
       <c r="B19">
-        <v>1.23611</v>
+        <v>1.21898</v>
       </c>
       <c r="C19">
-        <v>1.72366</v>
+        <v>1.6719999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.96770999999999996</v>
+        <v>0.87304999999999999</v>
       </c>
       <c r="B20">
-        <v>1.29558</v>
+        <v>1.23611</v>
       </c>
       <c r="C20">
-        <v>1.8769</v>
+        <v>1.72366</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1.06274</v>
+        <v>0.96770999999999996</v>
       </c>
       <c r="B21">
-        <v>1.36751</v>
+        <v>1.29558</v>
       </c>
       <c r="C21">
-        <v>2.0598200000000002</v>
+        <v>1.8769</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1.1465700000000001</v>
+        <v>1.06274</v>
       </c>
       <c r="B22">
-        <v>1.43346</v>
+        <v>1.36751</v>
       </c>
       <c r="C22">
-        <v>2.24885</v>
+        <v>2.0598200000000002</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1.1979299999999999</v>
+        <v>1.1465700000000001</v>
       </c>
       <c r="B23">
-        <v>1.4752099999999999</v>
+        <v>1.43346</v>
       </c>
       <c r="C23">
-        <v>2.3937200000000001</v>
+        <v>2.24885</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.3326100000000001</v>
+        <v>1.1979299999999999</v>
       </c>
       <c r="B24">
-        <v>1.5904700000000001</v>
+        <v>1.4752099999999999</v>
       </c>
       <c r="C24">
-        <v>2.8115999999999999</v>
+        <v>2.3937200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1.3784000000000001</v>
+        <v>1.3326100000000001</v>
       </c>
       <c r="B25">
-        <v>1.63107</v>
+        <v>1.5904700000000001</v>
       </c>
       <c r="C25">
-        <v>2.9499900000000001</v>
+        <v>2.8115999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1.4856799999999999</v>
+        <v>1.3784000000000001</v>
       </c>
       <c r="B26">
-        <v>1.7263500000000001</v>
+        <v>1.63107</v>
       </c>
       <c r="C26">
-        <v>3.2486000000000002</v>
+        <v>2.9499900000000001</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1.5024200000000001</v>
+        <v>1.4856799999999999</v>
       </c>
       <c r="B27">
-        <v>1.7411000000000001</v>
+        <v>1.7263500000000001</v>
       </c>
       <c r="C27">
-        <v>3.2943099999999998</v>
+        <v>3.2486000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1.6288</v>
+        <v>1.5024200000000001</v>
       </c>
       <c r="B28">
-        <v>1.8581799999999999</v>
+        <v>1.7411000000000001</v>
       </c>
       <c r="C28">
-        <v>3.6259299999999999</v>
+        <v>3.2943099999999998</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1.6798</v>
+        <v>1.6288</v>
       </c>
       <c r="B29">
-        <v>1.9081300000000001</v>
+        <v>1.8581799999999999</v>
       </c>
       <c r="C29">
-        <v>3.7503199999999999</v>
+        <v>3.6259299999999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1.7847</v>
+        <v>1.6798</v>
       </c>
       <c r="B30">
-        <v>2.0086300000000001</v>
+        <v>1.9081300000000001</v>
       </c>
       <c r="C30">
-        <v>3.9686499999999998</v>
+        <v>3.7503199999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.8373999999999999</v>
+        <v>1.7847</v>
       </c>
       <c r="B31">
-        <v>2.0575600000000001</v>
+        <v>2.0086300000000001</v>
       </c>
       <c r="C31">
-        <v>4.0660800000000004</v>
+        <v>3.9686499999999998</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1.9811000000000001</v>
+        <v>1.8373999999999999</v>
       </c>
       <c r="B32">
-        <v>2.1873800000000001</v>
+        <v>2.0575600000000001</v>
       </c>
       <c r="C32">
-        <v>4.3651299999999997</v>
+        <v>4.0660800000000004</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.1219000000000001</v>
+        <v>1.9811000000000001</v>
       </c>
       <c r="B33">
-        <v>2.3764699999999999</v>
+        <v>2.1873800000000001</v>
       </c>
       <c r="C33">
-        <v>4.6540400000000002</v>
+        <v>4.3651299999999997</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.2721</v>
+        <v>2.1219000000000001</v>
       </c>
       <c r="B34">
-        <v>2.80193</v>
+        <v>2.3764699999999999</v>
       </c>
       <c r="C34">
-        <v>4.9470599999999996</v>
+        <v>4.6540400000000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.3906999999999998</v>
+        <v>2.2721</v>
       </c>
       <c r="B35">
-        <v>3.1522999999999999</v>
+        <v>2.80193</v>
       </c>
       <c r="C35">
-        <v>5.1668099999999999</v>
+        <v>4.9470599999999996</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.5152000000000001</v>
+        <v>2.3906999999999998</v>
       </c>
       <c r="B36">
-        <v>3.6122999999999998</v>
+        <v>3.1522999999999999</v>
       </c>
       <c r="C36">
-        <v>5.3871099999999998</v>
+        <v>5.1668099999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>2.5152000000000001</v>
+      </c>
+      <c r="B37">
+        <v>3.6122999999999998</v>
+      </c>
+      <c r="C37">
+        <v>5.3871099999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>2.5752999999999999</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>3.9750700000000001</v>
       </c>
-      <c r="C37">
+      <c r="C38">
+        <v>5.4899899999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>9.9999999999999998E+66</v>
+      </c>
+      <c r="B39">
+        <v>3.9750700000000001</v>
+      </c>
+      <c r="C39">
         <v>5.4899899999999997</v>
       </c>
     </row>
